--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Areg</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Areg</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H2">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I2">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J2">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N2">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q2">
-        <v>0.001144216031777778</v>
+        <v>0.02952327964444445</v>
       </c>
       <c r="R2">
-        <v>0.010297944286</v>
+        <v>0.2657095168</v>
       </c>
       <c r="S2">
-        <v>0.0001109188282345395</v>
+        <v>0.001525793948830486</v>
       </c>
       <c r="T2">
-        <v>0.0001109188282345395</v>
+        <v>0.001525793948830486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H3">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I3">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J3">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P3">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q3">
-        <v>0.01738166628877778</v>
+        <v>0.06644725063822222</v>
       </c>
       <c r="R3">
-        <v>0.156434996599</v>
+        <v>0.598025255744</v>
       </c>
       <c r="S3">
-        <v>0.001684956340385783</v>
+        <v>0.003434063361564921</v>
       </c>
       <c r="T3">
-        <v>0.001684956340385784</v>
+        <v>0.003434063361564921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H4">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I4">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J4">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N4">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q4">
-        <v>0.03317717291622223</v>
+        <v>0.1139210434986667</v>
       </c>
       <c r="R4">
-        <v>0.298594556246</v>
+        <v>1.025289391488</v>
       </c>
       <c r="S4">
-        <v>0.003216152406363739</v>
+        <v>0.005887558594711507</v>
       </c>
       <c r="T4">
-        <v>0.003216152406363739</v>
+        <v>0.005887558594711507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H5">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I5">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J5">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N5">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O5">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P5">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q5">
-        <v>0.1481141143123333</v>
+        <v>0.3178269693084445</v>
       </c>
       <c r="R5">
-        <v>1.333027028811</v>
+        <v>2.860442723776</v>
       </c>
       <c r="S5">
-        <v>0.01435799145288615</v>
+        <v>0.01642562995663697</v>
       </c>
       <c r="T5">
-        <v>0.01435799145288616</v>
+        <v>0.01642562995663697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,46 +791,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H6">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I6">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J6">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N6">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q6">
-        <v>0.006886224938777778</v>
+        <v>0.01364710125511111</v>
       </c>
       <c r="R6">
-        <v>0.06197602444900001</v>
+        <v>0.122823911296</v>
       </c>
       <c r="S6">
-        <v>0.0006675417752904175</v>
+        <v>0.0007052964563861988</v>
       </c>
       <c r="T6">
-        <v>0.0006675417752904175</v>
+        <v>0.0007052964563861988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H7">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I7">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J7">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N7">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q7">
-        <v>0.02737355983755555</v>
+        <v>0.1260297014826667</v>
       </c>
       <c r="R7">
-        <v>0.246362038538</v>
+        <v>1.134267313344</v>
       </c>
       <c r="S7">
-        <v>0.002653557630259975</v>
+        <v>0.006513346694914045</v>
       </c>
       <c r="T7">
-        <v>0.002653557630259976</v>
+        <v>0.006513346694914045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04546433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.136393</v>
+      </c>
+      <c r="I8">
+        <v>0.009022540773360069</v>
+      </c>
+      <c r="J8">
+        <v>0.009022540773360069</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.8447423333333334</v>
-      </c>
-      <c r="H8">
-        <v>2.534227</v>
-      </c>
-      <c r="I8">
-        <v>0.4216084769318969</v>
-      </c>
-      <c r="J8">
-        <v>0.4216084769318968</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N8">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q8">
-        <v>0.02125991188377778</v>
+        <v>0.007722874755555556</v>
       </c>
       <c r="R8">
-        <v>0.191339206954</v>
+        <v>0.06950587280000001</v>
       </c>
       <c r="S8">
-        <v>0.002060908472724643</v>
+        <v>0.0003991262390735019</v>
       </c>
       <c r="T8">
-        <v>0.002060908472724643</v>
+        <v>0.0003991262390735019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H9">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I9">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J9">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.146943</v>
       </c>
       <c r="O9">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P9">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q9">
-        <v>0.3229571020067778</v>
+        <v>0.01738166628877778</v>
       </c>
       <c r="R9">
-        <v>2.906613918061</v>
+        <v>0.156434996599</v>
       </c>
       <c r="S9">
-        <v>0.03130704546147414</v>
+        <v>0.000898302680576294</v>
       </c>
       <c r="T9">
-        <v>0.03130704546147414</v>
+        <v>0.000898302680576294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04546433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.136393</v>
+      </c>
+      <c r="I10">
+        <v>0.009022540773360069</v>
+      </c>
+      <c r="J10">
+        <v>0.009022540773360069</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.8447423333333334</v>
-      </c>
-      <c r="H10">
-        <v>2.534227</v>
-      </c>
-      <c r="I10">
-        <v>0.4216084769318969</v>
-      </c>
-      <c r="J10">
-        <v>0.4216084769318968</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N10">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q10">
-        <v>0.6164428334882223</v>
+        <v>0.02980014285533333</v>
       </c>
       <c r="R10">
-        <v>5.547985501394</v>
+        <v>0.2682012856979999</v>
       </c>
       <c r="S10">
-        <v>0.05975717422684418</v>
+        <v>0.001540102528937965</v>
       </c>
       <c r="T10">
-        <v>0.05975717422684417</v>
+        <v>0.001540102528937965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H11">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I11">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J11">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N11">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O11">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P11">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q11">
-        <v>2.752009176214333</v>
+        <v>0.08313906542455556</v>
       </c>
       <c r="R11">
-        <v>24.768082585929</v>
+        <v>0.748251588821</v>
       </c>
       <c r="S11">
-        <v>0.2667762246279011</v>
+        <v>0.00429671379548374</v>
       </c>
       <c r="T11">
-        <v>0.2667762246279011</v>
+        <v>0.00429671379548374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H12">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I12">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J12">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N12">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q12">
-        <v>0.1279483343567778</v>
+        <v>0.003569889762888888</v>
       </c>
       <c r="R12">
-        <v>1.151535009211</v>
+        <v>0.032129007866</v>
       </c>
       <c r="S12">
-        <v>0.01240314671991164</v>
+        <v>0.0001844956340828733</v>
       </c>
       <c r="T12">
-        <v>0.01240314671991164</v>
+        <v>0.0001844956340828733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H13">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I13">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J13">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N13">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q13">
-        <v>0.5086097851535555</v>
+        <v>0.03296759749433333</v>
       </c>
       <c r="R13">
-        <v>4.577488066382</v>
+        <v>0.296708377449</v>
       </c>
       <c r="S13">
-        <v>0.04930397742304111</v>
+        <v>0.001703799895205696</v>
       </c>
       <c r="T13">
-        <v>0.04930397742304111</v>
+        <v>0.001703799895205696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.767787666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.303363</v>
+      </c>
+      <c r="I14">
+        <v>0.3508230547273627</v>
+      </c>
+      <c r="J14">
+        <v>0.3508230547273627</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.4952739999999999</v>
-      </c>
-      <c r="H14">
-        <v>1.485822</v>
-      </c>
-      <c r="I14">
-        <v>0.2471898335910338</v>
-      </c>
-      <c r="J14">
-        <v>0.2471898335910338</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N14">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q14">
-        <v>0.01246472584933333</v>
+        <v>0.3002881983111112</v>
       </c>
       <c r="R14">
-        <v>0.112182532644</v>
+        <v>2.7025937848</v>
       </c>
       <c r="S14">
-        <v>0.001208314467788669</v>
+        <v>0.01551920794052162</v>
       </c>
       <c r="T14">
-        <v>0.001208314467788669</v>
+        <v>0.01551920794052161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H15">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I15">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J15">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.146943</v>
       </c>
       <c r="O15">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P15">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q15">
-        <v>0.1893503491273333</v>
+        <v>0.6758505632565557</v>
       </c>
       <c r="R15">
-        <v>1.704153142146</v>
+        <v>6.082655069309</v>
       </c>
       <c r="S15">
-        <v>0.01835537893868956</v>
+        <v>0.03492866348690283</v>
       </c>
       <c r="T15">
-        <v>0.01835537893868956</v>
+        <v>0.03492866348690282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.767787666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.303363</v>
+      </c>
+      <c r="I16">
+        <v>0.3508230547273627</v>
+      </c>
+      <c r="J16">
+        <v>0.3508230547273627</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.4952739999999999</v>
-      </c>
-      <c r="H16">
-        <v>1.485822</v>
-      </c>
-      <c r="I16">
-        <v>0.2471898335910338</v>
-      </c>
-      <c r="J16">
-        <v>0.2471898335910338</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N16">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q16">
-        <v>0.3614215789426666</v>
+        <v>1.158717639568667</v>
       </c>
       <c r="R16">
-        <v>3.252794210483999</v>
+        <v>10.428458756118</v>
       </c>
       <c r="S16">
-        <v>0.0350357423088295</v>
+        <v>0.05988373866823102</v>
       </c>
       <c r="T16">
-        <v>0.0350357423088295</v>
+        <v>0.05988373866823102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H17">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I17">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J17">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N17">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O17">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P17">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q17">
-        <v>1.613508094666</v>
+        <v>3.232692611990112</v>
       </c>
       <c r="R17">
-        <v>14.521572851994</v>
+        <v>29.094233507911</v>
       </c>
       <c r="S17">
-        <v>0.1564113963070701</v>
+        <v>0.1670689328965419</v>
       </c>
       <c r="T17">
-        <v>0.1564113963070701</v>
+        <v>0.1670689328965419</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,55 +1526,55 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H18">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I18">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J18">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N18">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q18">
-        <v>0.07501634622733333</v>
+        <v>0.1388078661117778</v>
       </c>
       <c r="R18">
-        <v>0.6751471160459999</v>
+        <v>1.249270795006</v>
       </c>
       <c r="S18">
-        <v>0.00727198797332384</v>
+        <v>0.007173735598283265</v>
       </c>
       <c r="T18">
-        <v>0.007271987973323839</v>
+        <v>0.007173735598283265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H19">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I19">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J19">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N19">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q19">
-        <v>0.2981988622946666</v>
+        <v>1.281877638517667</v>
       </c>
       <c r="R19">
-        <v>2.683789760652</v>
+        <v>11.536898746659</v>
       </c>
       <c r="S19">
-        <v>0.02890701359533214</v>
+        <v>0.06624877613688214</v>
       </c>
       <c r="T19">
-        <v>0.02890701359533214</v>
+        <v>0.06624877613688213</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H20">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I20">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J20">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N20">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q20">
-        <v>0.008276403403333332</v>
+        <v>0.3211686619555557</v>
       </c>
       <c r="R20">
-        <v>0.07448763063</v>
+        <v>2.890517957600001</v>
       </c>
       <c r="S20">
-        <v>0.0008023038849296403</v>
+        <v>0.01659833212527198</v>
       </c>
       <c r="T20">
-        <v>0.0008023038849296403</v>
+        <v>0.01659833212527198</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H21">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I21">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J21">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.146943</v>
       </c>
       <c r="O21">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P21">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q21">
-        <v>0.1257259800883333</v>
+        <v>0.722845660614778</v>
       </c>
       <c r="R21">
-        <v>1.131533820795</v>
+        <v>6.505610945533</v>
       </c>
       <c r="S21">
-        <v>0.01218771455978459</v>
+        <v>0.03735741923617705</v>
       </c>
       <c r="T21">
-        <v>0.0121877145597846</v>
+        <v>0.03735741923617705</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,55 +1774,55 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H22">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I22">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J22">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N22">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q22">
-        <v>0.2399788669366666</v>
+        <v>1.239288776507333</v>
       </c>
       <c r="R22">
-        <v>2.15980980243</v>
+        <v>11.153598988566</v>
       </c>
       <c r="S22">
-        <v>0.02326324223958885</v>
+        <v>0.06404773923564575</v>
       </c>
       <c r="T22">
-        <v>0.02326324223958885</v>
+        <v>0.06404773923564575</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H23">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I23">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J23">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N23">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O23">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P23">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q23">
-        <v>1.071346778695</v>
+        <v>3.457477072178556</v>
       </c>
       <c r="R23">
-        <v>9.642121008255</v>
+        <v>31.117293649607</v>
       </c>
       <c r="S23">
-        <v>0.1038549767049381</v>
+        <v>0.1786860287367459</v>
       </c>
       <c r="T23">
-        <v>0.1038549767049382</v>
+        <v>0.1786860287367459</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,55 +1898,55 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.890710333333333</v>
+      </c>
+      <c r="H24">
+        <v>5.672131</v>
+      </c>
+      <c r="I24">
+        <v>0.3752174467849496</v>
+      </c>
+      <c r="J24">
+        <v>0.3752174467849496</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G24">
-        <v>0.328855</v>
-      </c>
-      <c r="H24">
-        <v>0.9865649999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.16413058776673</v>
-      </c>
-      <c r="J24">
-        <v>0.16413058776673</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M24">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N24">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q24">
-        <v>0.04980980333833333</v>
+        <v>0.1484598358468889</v>
       </c>
       <c r="R24">
-        <v>0.448288230045</v>
+        <v>1.336138522622</v>
       </c>
       <c r="S24">
-        <v>0.004828498174681916</v>
+        <v>0.007672559482129747</v>
       </c>
       <c r="T24">
-        <v>0.004828498174681916</v>
+        <v>0.007672559482129747</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H25">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I25">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J25">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N25">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q25">
-        <v>0.1979998684766666</v>
+        <v>1.371012674720334</v>
       </c>
       <c r="R25">
-        <v>1.78199881629</v>
+        <v>12.339114072483</v>
       </c>
       <c r="S25">
-        <v>0.01919385220280683</v>
+        <v>0.07085536796897919</v>
       </c>
       <c r="T25">
-        <v>0.01919385220280683</v>
+        <v>0.07085536796897919</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,55 +2022,55 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.161207333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.483622</v>
+      </c>
+      <c r="I26">
+        <v>0.2304452687012834</v>
+      </c>
+      <c r="J26">
+        <v>0.2304452687012835</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>0.2892823333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.867847</v>
-      </c>
-      <c r="I26">
-        <v>0.1443799832769188</v>
-      </c>
-      <c r="J26">
-        <v>0.1443799832769187</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M26">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N26">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O26">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P26">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q26">
-        <v>0.007280464910444445</v>
+        <v>0.1972504190222222</v>
       </c>
       <c r="R26">
-        <v>0.065524184194</v>
+        <v>1.7752537712</v>
       </c>
       <c r="S26">
-        <v>0.0007057588903159282</v>
+        <v>0.01019410781501771</v>
       </c>
       <c r="T26">
-        <v>0.0007057588903159281</v>
+        <v>0.01019410781501771</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,25 +2084,25 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H27">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I27">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J27">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.146943</v>
       </c>
       <c r="O27">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P27">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q27">
-        <v>0.1105967824134445</v>
+        <v>0.4439462075051111</v>
       </c>
       <c r="R27">
-        <v>0.9953710417210001</v>
+        <v>3.995515867546</v>
       </c>
       <c r="S27">
-        <v>0.0107211096253824</v>
+        <v>0.02294360400251149</v>
       </c>
       <c r="T27">
-        <v>0.0107211096253824</v>
+        <v>0.0229436040025115</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,55 +2146,55 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.161207333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.483622</v>
+      </c>
+      <c r="I28">
+        <v>0.2304452687012834</v>
+      </c>
+      <c r="J28">
+        <v>0.2304452687012835</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="L28">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G28">
-        <v>0.2892823333333334</v>
-      </c>
-      <c r="H28">
-        <v>0.867847</v>
-      </c>
-      <c r="I28">
-        <v>0.1443799832769188</v>
-      </c>
-      <c r="J28">
-        <v>0.1443799832769187</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
       <c r="M28">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N28">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O28">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P28">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q28">
-        <v>0.2111010827815556</v>
+        <v>0.7611272811213333</v>
       </c>
       <c r="R28">
-        <v>1.899909745034</v>
+        <v>6.850145530092</v>
       </c>
       <c r="S28">
-        <v>0.02046386704160442</v>
+        <v>0.0393358533947045</v>
       </c>
       <c r="T28">
-        <v>0.02046386704160442</v>
+        <v>0.03933585339470451</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,25 +2208,25 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H29">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I29">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J29">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N29">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O29">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P29">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q29">
-        <v>0.9424265890743334</v>
+        <v>2.123459982348222</v>
       </c>
       <c r="R29">
-        <v>8.481839301669</v>
+        <v>19.111139841134</v>
       </c>
       <c r="S29">
-        <v>0.09135761958761</v>
+        <v>0.1097426312615065</v>
       </c>
       <c r="T29">
-        <v>0.09135761958761</v>
+        <v>0.1097426312615065</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,55 +2270,55 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H30">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I30">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J30">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N30">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O30">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P30">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q30">
-        <v>0.04381595576344445</v>
+        <v>0.09117877395155555</v>
       </c>
       <c r="R30">
-        <v>0.394343601871</v>
+        <v>0.820608965564</v>
       </c>
       <c r="S30">
-        <v>0.004247462311558973</v>
+        <v>0.004712214335010208</v>
       </c>
       <c r="T30">
-        <v>0.004247462311558972</v>
+        <v>0.004712214335010208</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H31">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I31">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J31">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N31">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O31">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P31">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q31">
-        <v>0.1741736143668889</v>
+        <v>0.8420274348273333</v>
       </c>
       <c r="R31">
-        <v>1.567562529302</v>
+        <v>7.578246913446001</v>
       </c>
       <c r="S31">
-        <v>0.01688416582044701</v>
+        <v>0.04351685789253301</v>
       </c>
       <c r="T31">
-        <v>0.01688416582044701</v>
+        <v>0.04351685789253302</v>
       </c>
     </row>
   </sheetData>
